--- a/docs/Dissertation/feedback/Results .xlsx
+++ b/docs/Dissertation/feedback/Results .xlsx
@@ -168,8 +168,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,13 +195,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -628,7 +636,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -975,6 +983,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>

--- a/docs/Dissertation/feedback/Results .xlsx
+++ b/docs/Dissertation/feedback/Results .xlsx
@@ -181,14 +181,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -636,7 +635,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -889,30 +888,62 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <f>((Table5[[#This Row],[Q1]]-1)+(5-Table5[[#This Row],[Q2]])+(Table5[[#This Row],[Q3]]-1)+(5-Table5[[#This Row],[Q4]])+(Table5[[#This Row],[Q5]]-1)+(5-Table5[[#This Row],[Q6]])+(Table5[[#This Row],[Q7]]-1)+(5-Table5[[#This Row],[Q8]])+(Table5[[#This Row],[Q9]]-1)+(5-Table5[[#This Row],[Q10]]))*2.5</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
@@ -920,62 +951,62 @@
       </c>
       <c r="B10">
         <f>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1))/SUBTOTAL(103,Table5[Q1])</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C10">
         <f>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6))/SUBTOTAL(103,Table5[Q2])</f>
-        <v>2.2000000000000002</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="D10">
         <f>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1))/SUBTOTAL(103,Table5[Q2])</f>
-        <v>2.2000000000000002</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="E10">
         <f>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6))/SUBTOTAL(103,Table5[Q3])</f>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F10">
         <f>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1))/SUBTOTAL(103,Table5[Q3])</f>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G10">
         <f>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6))/SUBTOTAL(103,Table5[Q4])</f>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H10">
         <f>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1))/SUBTOTAL(103,Table5[Q4])</f>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6))/SUBTOTAL(103,Table5[Q5])</f>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J10">
         <f>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</f>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6))/SUBTOTAL(103,Table5[Q6])</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L10">
         <f>SUBTOTAL(101,Table5[Total SUS Score])</f>
-        <v>60.5</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="13" spans="1:13">
       <c r="F13" s="4"/>
@@ -983,7 +1014,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>

--- a/docs/Dissertation/feedback/Results .xlsx
+++ b/docs/Dissertation/feedback/Results .xlsx
@@ -273,34 +273,34 @@
   <tableColumns count="12">
     <tableColumn id="1" name="Question/ID" totalsRowLabel="Average SUS Score" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Q1" totalsRowFunction="custom">
-      <totalsRowFormula>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1))/SUBTOTAL(103,Table5[Q1])</totalsRowFormula>
+      <totalsRowFormula>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/SUBTOTAL(103,Table5[Q1])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Q2" totalsRowFunction="custom">
-      <totalsRowFormula>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
+      <totalsRowFormula>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Q3" totalsRowFunction="custom">
-      <totalsRowFormula>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
+      <totalsRowFormula>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Q4" totalsRowFunction="custom">
-      <totalsRowFormula>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
+      <totalsRowFormula>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Q5" totalsRowFunction="custom">
-      <totalsRowFormula>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
+      <totalsRowFormula>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" name="Q6" totalsRowFunction="custom">
-      <totalsRowFormula>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
+      <totalsRowFormula>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" name="Q7" totalsRowFunction="custom">
-      <totalsRowFormula>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
+      <totalsRowFormula>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" name="Q8" totalsRowFunction="custom">
-      <totalsRowFormula>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
+      <totalsRowFormula>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I6))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" name="Q9" totalsRowFunction="custom">
-      <totalsRowFormula>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
+      <totalsRowFormula>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Q10" totalsRowFunction="custom">
-      <totalsRowFormula>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6))/SUBTOTAL(103,Table5[Q6])</totalsRowFormula>
+      <totalsRowFormula>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6+(5-K6)))/SUBTOTAL(103,Table5[Q6])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" name="Total SUS Score" totalsRowFunction="average" dataDxfId="1">
       <calculatedColumnFormula>((Table5[[#This Row],[Q1]]-1)+(5-Table5[[#This Row],[Q2]])+(Table5[[#This Row],[Q3]]-1)+(5-Table5[[#This Row],[Q4]])+(Table5[[#This Row],[Q5]]-1)+(5-Table5[[#This Row],[Q6]])+(Table5[[#This Row],[Q7]]-1)+(5-Table5[[#This Row],[Q8]])+(Table5[[#This Row],[Q9]]-1)+(5-Table5[[#This Row],[Q10]]))*2.5</calculatedColumnFormula>
@@ -635,7 +635,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -950,44 +950,44 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <f>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1))/SUBTOTAL(103,Table5[Q1])</f>
-        <v>1.6666666666666667</v>
+        <f>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/SUBTOTAL(103,Table5[Q1])</f>
+        <v>2</v>
       </c>
       <c r="C10">
-        <f>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6))/SUBTOTAL(103,Table5[Q2])</f>
-        <v>1.8333333333333333</v>
+        <f>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/SUBTOTAL(103,Table5[Q2])</f>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <f>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1))/SUBTOTAL(103,Table5[Q2])</f>
-        <v>1.8333333333333333</v>
+        <f>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/SUBTOTAL(103,Table5[Q2])</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E10">
-        <f>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6))/SUBTOTAL(103,Table5[Q3])</f>
+        <f>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/SUBTOTAL(103,Table5[Q3])</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/SUBTOTAL(103,Table5[Q3])</f>
+        <v>2.5</v>
+      </c>
+      <c r="G10">
+        <f>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/SUBTOTAL(103,Table5[Q4])</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H10">
+        <f>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/SUBTOTAL(103,Table5[Q4])</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F10">
-        <f>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1))/SUBTOTAL(103,Table5[Q3])</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="G10">
-        <f>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6))/SUBTOTAL(103,Table5[Q4])</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="H10">
-        <f>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1))/SUBTOTAL(103,Table5[Q4])</f>
-        <v>2</v>
-      </c>
       <c r="I10">
-        <f>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6))/SUBTOTAL(103,Table5[Q5])</f>
+        <f>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I6))/SUBTOTAL(103,Table5[Q5])</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="J10">
+        <f>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K10">
+        <f>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6+(5-K6)))/SUBTOTAL(103,Table5[Q6])</f>
         <v>2.1666666666666665</v>
-      </c>
-      <c r="J10">
-        <f>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</f>
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6))/SUBTOTAL(103,Table5[Q6])</f>
-        <v>1.6666666666666667</v>
       </c>
       <c r="L10">
         <f>SUBTOTAL(101,Table5[Total SUS Score])</f>

--- a/docs/Dissertation/feedback/Results .xlsx
+++ b/docs/Dissertation/feedback/Results .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="7240" yWindow="3360" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Question/ID</t>
   </si>
@@ -88,12 +88,30 @@
   <si>
     <t>Total SUS Score</t>
   </si>
+  <si>
+    <t>Normised values</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max diff</t>
+  </si>
+  <si>
+    <t>Min diff</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>For chart</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,16 +168,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -167,8 +238,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -180,8 +312,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,18 +361,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -267,40 +480,729 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SUS Scores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t>(with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1"/>
+              <a:t>Standard Deviation)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.297372146663485"/>
+          <c:y val="0.0020358795356766"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0890236220472441"/>
+          <c:y val="0.127044535433071"/>
+          <c:w val="0.859303422468231"/>
+          <c:h val="0.731743244094488"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00202020202020202"/>
+                  <c:y val="-0.0273504273504273"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.48146436747869E-16"/>
+                  <c:y val="-0.0102564102564103"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$N$24:$W$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.632455532033676</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.211060141638997</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.048808848170152</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.095445115010332</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.836660026534076</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.547722557505166</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.816496580927726</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.224744871391589</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.329160135825126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$N$24:$W$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.632455532033676</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.211060141638997</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.048808848170152</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.095445115010332</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.836660026534076</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.547722557505166</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.816496580927726</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.224744871391589</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.329160135825126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.166666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440216936"/>
+        <c:axId val="439903624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440216936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SUS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Question no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="439903624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439903624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avavage Points Scored</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440216936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="127"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="27"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>SUS Ratings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> Spread</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.341654418197725"/>
+          <c:y val="0.0324074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.103923665791776"/>
+          <c:y val="0.138888888888889"/>
+          <c:w val="0.859965223097113"/>
+          <c:h val="0.692839749198017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$27:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$27:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="440283048"/>
+        <c:axId val="402749272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440283048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="402749272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402749272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00277777777777778"/>
+              <c:y val="0.382271070282881"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440283048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:L10" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:L9"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Question/ID" totalsRowLabel="Average SUS Score" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Q1" totalsRowFunction="custom">
-      <totalsRowFormula>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/SUBTOTAL(103,Table5[Q1])</totalsRowFormula>
+      <totalsRowFormula>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/COUNT(B2:B7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Q2" totalsRowFunction="custom">
-      <totalsRowFormula>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
+      <totalsRowFormula>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/COUNT(C2:C7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Q3" totalsRowFunction="custom">
-      <totalsRowFormula>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/SUBTOTAL(103,Table5[Q2])</totalsRowFormula>
+      <totalsRowFormula>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/COUNT(D2:D7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Q4" totalsRowFunction="custom">
-      <totalsRowFormula>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
+      <totalsRowFormula>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/COUNT(E2:E7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Q5" totalsRowFunction="custom">
-      <totalsRowFormula>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/SUBTOTAL(103,Table5[Q3])</totalsRowFormula>
+      <totalsRowFormula>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/COUNT(F2:F7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" name="Q6" totalsRowFunction="custom">
-      <totalsRowFormula>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
+      <totalsRowFormula>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/COUNT(G2:G7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" name="Q7" totalsRowFunction="custom">
-      <totalsRowFormula>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/SUBTOTAL(103,Table5[Q4])</totalsRowFormula>
+      <totalsRowFormula>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/COUNT(H2:H7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" name="Q8" totalsRowFunction="custom">
-      <totalsRowFormula>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I6))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
+      <totalsRowFormula>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I7))/COUNT(I2:I7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" name="Q9" totalsRowFunction="custom">
-      <totalsRowFormula>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</totalsRowFormula>
+      <totalsRowFormula>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J7-1))/COUNT(J2:J7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Q10" totalsRowFunction="custom">
-      <totalsRowFormula>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6+(5-K6)))/SUBTOTAL(103,Table5[Q6])</totalsRowFormula>
+      <totalsRowFormula>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6)+(5-K7))/COUNT(K2:K7)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" name="Total SUS Score" totalsRowFunction="average" dataDxfId="1">
       <calculatedColumnFormula>((Table5[[#This Row],[Q1]]-1)+(5-Table5[[#This Row],[Q2]])+(Table5[[#This Row],[Q3]]-1)+(5-Table5[[#This Row],[Q4]])+(Table5[[#This Row],[Q5]]-1)+(5-Table5[[#This Row],[Q6]])+(Table5[[#This Row],[Q7]]-1)+(5-Table5[[#This Row],[Q8]])+(Table5[[#This Row],[Q9]]-1)+(5-Table5[[#This Row],[Q10]]))*2.5</calculatedColumnFormula>
@@ -632,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -646,9 +1548,11 @@
     <col min="9" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="23" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -725,7 +1629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -747,7 +1651,7 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
       <c r="I3">
@@ -767,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -806,7 +1710,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -828,7 +1732,7 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>4</v>
       </c>
       <c r="I5">
@@ -845,7 +1749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1">
+    <row r="6" spans="1:25" s="5" customFormat="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -867,7 +1771,7 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>3</v>
       </c>
       <c r="I6" s="5">
@@ -884,7 +1788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1">
+    <row r="7" spans="1:25" s="5" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -892,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -906,8 +1810,8 @@
       <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
-        <v>3</v>
+      <c r="H7" s="4">
+        <v>4</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -916,14 +1820,14 @@
         <v>4</v>
       </c>
       <c r="K7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" s="5">
         <f>((Table5[[#This Row],[Q1]]-1)+(5-Table5[[#This Row],[Q2]])+(Table5[[#This Row],[Q3]]-1)+(5-Table5[[#This Row],[Q4]])+(Table5[[#This Row],[Q5]]-1)+(5-Table5[[#This Row],[Q6]])+(Table5[[#This Row],[Q7]]-1)+(5-Table5[[#This Row],[Q8]])+(Table5[[#This Row],[Q9]]-1)+(5-Table5[[#This Row],[Q10]]))*2.5</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -939,62 +1843,62 @@
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <f>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/SUBTOTAL(103,Table5[Q1])</f>
+        <f>((B2-1)+(B3-1)+(B4-1)+(B5-1)+(B6-1)+(B7-1))/COUNT(B2:B7)</f>
         <v>2</v>
       </c>
       <c r="C10">
-        <f>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/SUBTOTAL(103,Table5[Q2])</f>
+        <f>((5-C2)+(5-C3)+(5-C4)+(5-C5)+(5-C6)+(5-C7))/COUNT(C2:C7)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="0">((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/COUNT(D2:D7)</f>
         <v>2.5</v>
       </c>
-      <c r="D10">
-        <f>((D2-1)+(D3-1)+(D4-1)+(D5-1)+(D6-1)+(D7-1))/SUBTOTAL(103,Table5[Q2])</f>
-        <v>2.3333333333333335</v>
-      </c>
       <c r="E10">
-        <f>((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/SUBTOTAL(103,Table5[Q3])</f>
+        <f t="shared" ref="E10" si="1">((5-E2)+(5-E3)+(5-E4)+(5-E5)+(5-E6)+(5-E7))/COUNT(E2:E7)</f>
         <v>3</v>
       </c>
       <c r="F10">
-        <f>((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/SUBTOTAL(103,Table5[Q3])</f>
+        <f t="shared" ref="F10" si="2">((F2-1)+(F3-1)+(F4-1)+(F5-1)+(F6-1)+(F7-1))/COUNT(F2:F7)</f>
         <v>2.5</v>
       </c>
       <c r="G10">
-        <f>((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/SUBTOTAL(103,Table5[Q4])</f>
+        <f t="shared" ref="G10" si="3">((5-G2)+(5-G3)+(5-G4)+(5-G5)+(5-G6)+(5-G7))/COUNT(G2:G7)</f>
         <v>2.8333333333333335</v>
       </c>
       <c r="H10">
-        <f>((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/SUBTOTAL(103,Table5[Q4])</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="H10" si="4">((H2-1)+(H3-1)+(H4-1)+(H5-1)+(H6-1)+(H7-1))/COUNT(H2:H7)</f>
+        <v>2.5</v>
       </c>
       <c r="I10">
-        <f>((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I6))/SUBTOTAL(103,Table5[Q5])</f>
-        <v>2.8333333333333335</v>
+        <f t="shared" ref="I10" si="5">((5-I2)+(5-I3)+(5-I4)+(5-I5)+(5-I6)+(5-I7))/COUNT(I2:I7)</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J10">
-        <f>((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J6-1))/SUBTOTAL(103,Table5[Q5])</f>
-        <v>2.6666666666666665</v>
+        <f t="shared" ref="J10" si="6">((J2-1)+(J3-1)+(J4-1)+(J5-1)+(J6-1)+(J7-1))/COUNT(J2:J7)</f>
+        <v>2.5</v>
       </c>
       <c r="K10">
-        <f>((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6+(5-K6)))/SUBTOTAL(103,Table5[Q6])</f>
+        <f t="shared" ref="K10" si="7">((5-K2)+(5-K3)+(5-K4)+(5-K5)+(5-K6)+(5-K7))/COUNT(K2:K7)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="L10">
         <f>SUBTOTAL(101,Table5[Total SUS Score])</f>
-        <v>61.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1002,23 +1906,696 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="F13" s="4"/>
+    <row r="12" spans="1:25">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="H13"/>
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18">
+      <c r="H14"/>
+      <c r="N14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="N15" s="11">
+        <f>B2-1</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="11">
+        <f>5-C2</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" ref="P15" si="8">D2-1</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" ref="Q15" si="9">5-E2</f>
+        <v>3</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" ref="R15" si="10">F2-1</f>
+        <v>3</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" ref="S15" si="11">5-G2</f>
+        <v>3</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" ref="T15" si="12">H2-1</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" ref="U15" si="13">5-I2</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" ref="V15" si="14">J2-1</f>
+        <v>3</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15" si="15">5-K2</f>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="N16" s="11">
+        <f t="shared" ref="N16:N20" si="16">B3-1</f>
+        <v>2</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" ref="O16:O20" si="17">5-C3</f>
+        <v>3</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" ref="P16:P20" si="18">D3-1</f>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" ref="Q16:Q20" si="19">5-E3</f>
+        <v>4</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" ref="R16:R20" si="20">F3-1</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" ref="S16:S20" si="21">5-G3</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" ref="T16:T20" si="22">H3-1</f>
+        <v>3</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" ref="U16:U20" si="23">5-I3</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" ref="V16:V20" si="24">J3-1</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" ref="W16:W20" si="25">5-K3</f>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:25">
+      <c r="N17" s="11">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="13:25">
+      <c r="N18" s="11">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="13:25">
+      <c r="N19" s="11">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="13:25">
+      <c r="N20" s="11">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="W20" s="11">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="13:25">
+      <c r="M21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="14">
+        <f>SUM(N15:N20)/COUNT(N15:N20)</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" ref="O21:W21" si="26">SUM(O15:O20)/COUNT(O15:O20)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="W21" s="14">
+        <f t="shared" si="26"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="13:25">
+      <c r="M22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="13">
+        <f>MAX(N15:N20)-N21</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" ref="O22:W22" si="27">MAX(O15:O20)-O21</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="13">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" si="27"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="T22" s="13">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="U22" s="13">
+        <f t="shared" si="27"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="V22" s="13">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="W22" s="13">
+        <f t="shared" si="27"/>
+        <v>1.8333333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="13:25">
+      <c r="M23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="15">
+        <f>N21-MIN(N15:N20)</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" ref="O23:W23" si="28">O21-MIN(O15:O20)</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="28"/>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="28"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" si="28"/>
+        <v>1.1666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="13:25">
+      <c r="N24">
+        <f>_xlfn.STDEV.S(N15:N20)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:W24" si="29">_xlfn.STDEV.S(O15:O20)</f>
+        <v>1.211060141638997</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="29"/>
+        <v>1.0488088481701516</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="29"/>
+        <v>1.0954451150103321</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="29"/>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="29"/>
+        <v>0.75277265270908122</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="29"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="29"/>
+        <v>0.81649658092772637</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="29"/>
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="29"/>
+        <v>1.3291601358251257</v>
+      </c>
+    </row>
+    <row r="26" spans="13:25" ht="18" thickBot="1">
+      <c r="M26" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="13:25" ht="19" thickTop="1" thickBot="1">
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <f>SUM(N27:W27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="13:25" ht="19" thickTop="1" thickBot="1">
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
+      <c r="N28" s="19">
+        <v>1</v>
+      </c>
+      <c r="O28" s="19">
+        <v>2</v>
+      </c>
+      <c r="P28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19">
+        <v>2</v>
+      </c>
+      <c r="W28" s="19">
+        <v>3</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" ref="X28:X30" si="30">SUM(N28:W28)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="13:25" ht="19" thickTop="1" thickBot="1">
+      <c r="M29" s="18">
+        <v>2</v>
+      </c>
+      <c r="N29" s="19">
+        <v>4</v>
+      </c>
+      <c r="O29" s="19">
+        <v>1</v>
+      </c>
+      <c r="P29" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0</v>
+      </c>
+      <c r="R29" s="19">
+        <v>1</v>
+      </c>
+      <c r="S29" s="19">
+        <v>2</v>
+      </c>
+      <c r="T29" s="19">
+        <v>3</v>
+      </c>
+      <c r="U29" s="19">
+        <v>3</v>
+      </c>
+      <c r="V29" s="19">
+        <v>0</v>
+      </c>
+      <c r="W29" s="19">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="13:25" ht="19" thickTop="1" thickBot="1">
+      <c r="M30" s="18">
+        <v>3</v>
+      </c>
+      <c r="N30" s="19">
+        <v>1</v>
+      </c>
+      <c r="O30" s="19">
+        <v>2</v>
+      </c>
+      <c r="P30" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>3</v>
+      </c>
+      <c r="R30" s="19">
+        <v>4</v>
+      </c>
+      <c r="S30" s="19">
+        <v>3</v>
+      </c>
+      <c r="T30" s="19">
+        <v>3</v>
+      </c>
+      <c r="U30" s="19">
+        <v>2</v>
+      </c>
+      <c r="V30" s="19">
+        <v>3</v>
+      </c>
+      <c r="W30" s="19">
+        <v>2</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="13:25" ht="18" thickTop="1">
+      <c r="M31" s="18">
+        <v>4</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+      <c r="O31" s="19">
+        <v>1</v>
+      </c>
+      <c r="P31" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>2</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0</v>
+      </c>
+      <c r="S31" s="19">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19">
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <v>1</v>
+      </c>
+      <c r="V31" s="19">
+        <v>1</v>
+      </c>
+      <c r="W31" s="19">
+        <v>1</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" ref="X31" si="31">SUM(N31:W31)</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N14:W14"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="Q15" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
